--- a/tietokanta/feats/feats_general.xlsx
+++ b/tietokanta/feats/feats_general.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\feats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD9652B-0BAD-4937-8657-DCBB4C62F42B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE49746-C5D2-4D2A-B233-4C0EEF7CB169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1920" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -933,7 +933,7 @@
   <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
